--- a/toyota_list_engine.xlsx
+++ b/toyota_list_engine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Github\Kaiho\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B59B589-9944-44D2-BF0C-7FF628F39337}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F6F2D5B-30FD-4155-95CA-F311898A74CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4AFA05D6-5AE9-4F32-9F7D-5C573E5D437D}"/>
   </bookViews>
@@ -39,9 +39,6 @@
     <t>2003 – 2.0 L (1998 cc) 1TR</t>
   </si>
   <si>
-    <t>2008 – 2.4 L (2,398 cc) RVX-08</t>
-  </si>
-  <si>
     <t xml:space="preserve"> U</t>
   </si>
   <si>
@@ -529,6 +526,9 @@
   </si>
   <si>
     <t xml:space="preserve"> 1GZ-FE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RVX-08</t>
   </si>
 </sst>
 </file>
@@ -922,7 +922,7 @@
   <dimension ref="A1:A167"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="A167" sqref="A167"/>
+      <selection activeCell="A155" sqref="A155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -940,397 +940,397 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="28.5" x14ac:dyDescent="0.25">
@@ -1340,427 +1340,427 @@
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" ht="42.75" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>2</v>
+        <v>165</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/toyota_list_engine.xlsx
+++ b/toyota_list_engine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Github\Kaiho\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F6F2D5B-30FD-4155-95CA-F311898A74CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D850AA8-2B6B-4B3A-ADB4-2F4444ED32BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4AFA05D6-5AE9-4F32-9F7D-5C573E5D437D}"/>
   </bookViews>
@@ -921,8 +921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E616D51-9942-4BBE-9182-D955364EE8FC}">
   <dimension ref="A1:A167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="A155" sqref="A155"/>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="B167" sqref="B167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
